--- a/history/physics.xlsx
+++ b/history/physics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algo\Notes\math_physics\history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C994DF14-88CA-4322-A567-E488228EB040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8938D098-6C4B-4A95-AF4E-6F8844178FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -784,7 +784,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,33 +836,30 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
@@ -870,16 +867,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>56</v>
@@ -887,16 +884,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
         <v>56</v>
@@ -904,16 +901,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
         <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -935,27 +935,27 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1423,8 +1423,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F39">
-    <sortCondition ref="B1:B39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F38">
+    <sortCondition ref="B1:B38"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/history/physics.xlsx
+++ b/history/physics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algo\Notes\math_physics\history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8938D098-6C4B-4A95-AF4E-6F8844178FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E658408-D20B-47D6-922E-113785FB8174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="143">
   <si>
     <t>key</t>
   </si>
@@ -52,6 +52,18 @@
     <t>{"persons": ["Nicolaus Copernicus"], "work": "De revolutionibus orbium coelestium", "event": "Heliocentric Model"}</t>
   </si>
   <si>
+    <t>classical_mechanics</t>
+  </si>
+  <si>
+    <t>1564, 1788</t>
+  </si>
+  <si>
+    <t>France, Switzerland</t>
+  </si>
+  <si>
+    <t>{"persons": ["Leonhard Euler", "Joseph-Louis Lagrange", "Jean le Rond d'Alembert"], "work": "Analytical Mechanics", "concepts": ["Lagrangian mechanics", "Euler equations", "D'Alembert's principle"]}</t>
+  </si>
+  <si>
     <t>tycho_observations</t>
   </si>
   <si>
@@ -76,12 +88,30 @@
     <t>{"persons": ["Johannes Kepler"], "works": ["Astronomia Nova", "Harmonices Mundi"], "event": "Kepler's Laws of Planetary Motion"}</t>
   </si>
   <si>
+    <t>huygens_mechanics</t>
+  </si>
+  <si>
+    <t>1673</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>{"persons": ["Christiaan Huygens"], "concepts": ["Centrifugal force", "Wave theory of light", "Pendulum clock"]}</t>
+  </si>
+  <si>
     <t>newtonian_mechanics</t>
   </si>
   <si>
+    <t>1687</t>
+  </si>
+  <si>
     <t>England</t>
   </si>
   <si>
+    <t>{"persons": ["Isaac Newton"], "work": "Philosophiæ Naturalis Principia Mathematica", "concepts": ["Three laws of motion", "Universal gravitation", "Calculus (concurrent with Leibniz)"]}</t>
+  </si>
+  <si>
     <t>coulomb_law</t>
   </si>
   <si>
@@ -94,6 +124,33 @@
     <t>{"persons": ["Charles-Augustin de Coulomb"], "concepts": ["Inverse-square law for electric force", "Torsion balance"]}</t>
   </si>
   <si>
+    <t>electromagnetism</t>
+  </si>
+  <si>
+    <t>1785, 1865</t>
+  </si>
+  <si>
+    <t>heat_engines</t>
+  </si>
+  <si>
+    <t>1798</t>
+  </si>
+  <si>
+    <t>{"persons": ["Benjamin Thompson (Count Rumford)"], "event": "Heat as Motion"}</t>
+  </si>
+  <si>
+    <t>thermodynamics</t>
+  </si>
+  <si>
+    <t>celestial_mechanics</t>
+  </si>
+  <si>
+    <t>1799</t>
+  </si>
+  <si>
+    <t>{"persons": ["Pierre-Simon Laplace"], "work": "Mécanique Céleste", "concepts": ["Deterministic universe", "Perturbation theory"]}</t>
+  </si>
+  <si>
     <t>voltaic_pile</t>
   </si>
   <si>
@@ -106,6 +163,18 @@
     <t>{"persons": ["Alessandro Volta"], "event": "First electric battery", "significance": "Continuous electric current"}</t>
   </si>
   <si>
+    <t>wave_optics</t>
+  </si>
+  <si>
+    <t>1801, 1818</t>
+  </si>
+  <si>
+    <t>England, France</t>
+  </si>
+  <si>
+    <t>{"persons": ["Thomas Young", "Augustin-Jean Fresnel"], "concepts": ["Wave interference", "Diffraction", "Polarization"]}</t>
+  </si>
+  <si>
     <t>oersted_discovery</t>
   </si>
   <si>
@@ -115,6 +184,21 @@
     <t>{"persons": ["Hans Christian Ørsted"], "event": "Electric current creates magnetic field", "concepts": ["Electromagnetism connection"]}</t>
   </si>
   <si>
+    <t>biot_savart_law</t>
+  </si>
+  <si>
+    <t>{"persons": ["Jean-Baptiste Biot", "Félix Savart"], "concepts": ["Magnetic field from current element"]}</t>
+  </si>
+  <si>
+    <t>electric_motor_generator</t>
+  </si>
+  <si>
+    <t>1821, 1832</t>
+  </si>
+  <si>
+    <t>{"persons": ["Michael Faraday", "Hippolyte Pixii"], "inventions": ["First electric motor", "First dynamo"]}</t>
+  </si>
+  <si>
     <t>ampere_law</t>
   </si>
   <si>
@@ -124,36 +208,24 @@
     <t>{"persons": ["André-Marie Ampère"], "concepts": ["Force between current-carrying wires", "Electrodynamics"]}</t>
   </si>
   <si>
+    <t>1824, 1850</t>
+  </si>
+  <si>
+    <t>France, Germany, England</t>
+  </si>
+  <si>
+    <t>{"persons": ["Sadi Carnot", "Rudolf Clausius", "William Thomson (Lord Kelvin)"], "concepts": ["Second law", "Entropy", "Absolute temperature"]}</t>
+  </si>
+  <si>
     <t>faraday_induction</t>
   </si>
   <si>
-    <t>biot_savart_law</t>
-  </si>
-  <si>
-    <t>{"persons": ["Jean-Baptiste Biot", "Félix Savart"], "concepts": ["Magnetic field from current element"]}</t>
-  </si>
-  <si>
     <t>1831</t>
   </si>
   <si>
     <t>{"persons": ["Michael Faraday"], "event": "Electromagnetic induction", "concepts": ["Magnetic field lines", "Field theory concept"]}</t>
   </si>
   <si>
-    <t>electric_motor_generator</t>
-  </si>
-  <si>
-    <t>1821, 1832</t>
-  </si>
-  <si>
-    <t>{"persons": ["Michael Faraday", "Hippolyte Pixii"], "inventions": ["First electric motor", "First dynamo"]}</t>
-  </si>
-  <si>
-    <t>1687</t>
-  </si>
-  <si>
-    <t>{"persons": ["Isaac Newton"], "work": "Philosophiæ Naturalis Principia Mathematica", "concepts": ["Three laws of motion", "Universal gravitation", "Calculus (concurrent with Leibniz)"]}</t>
-  </si>
-  <si>
     <t>gauss_laws</t>
   </si>
   <si>
@@ -163,6 +235,18 @@
     <t>{"persons": ["Carl Friedrich Gauss"], "concepts": ["Gauss's law for electricity", "Gauss's law for magnetism"]}</t>
   </si>
   <si>
+    <t>statistical_mechanics</t>
+  </si>
+  <si>
+    <t>1859, 1902</t>
+  </si>
+  <si>
+    <t>Scotland, Austria, United States</t>
+  </si>
+  <si>
+    <t>{"persons": ["James Clerk Maxwell", "Ludwig Boltzmann", "Josiah Willard Gibbs"], "concepts": ["Kinetic theory", "Statistical ensemble", "H-theorem"]}</t>
+  </si>
+  <si>
     <t>maxwell_equations</t>
   </si>
   <si>
@@ -175,90 +259,15 @@
     <t>{"persons": ["James Clerk Maxwell"], "works": ["On Physical Lines of Force", "A Dynamical Theory of the Electromagnetic Field"], "achievement": "Maxwell's equations unified electricity, magnetism, and light", "concepts": ["Displacement current", "Electromagnetic waves prediction", "Light as electromagnetic wave"]}</t>
   </si>
   <si>
-    <t>huygens_mechanics</t>
-  </si>
-  <si>
-    <t>1673</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>{"persons": ["Christiaan Huygens"], "concepts": ["Centrifugal force", "Wave theory of light", "Pendulum clock"]}</t>
-  </si>
-  <si>
-    <t>wave_optics</t>
-  </si>
-  <si>
-    <t>classical_mechanics</t>
-  </si>
-  <si>
-    <t>France, Switzerland</t>
-  </si>
-  <si>
-    <t>{"persons": ["Leonhard Euler", "Joseph-Louis Lagrange", "Jean le Rond d'Alembert"], "work": "Analytical Mechanics", "concepts": ["Lagrangian mechanics", "Euler equations", "D'Alembert's principle"]}</t>
-  </si>
-  <si>
-    <t>celestial_mechanics</t>
-  </si>
-  <si>
-    <t>1799</t>
-  </si>
-  <si>
-    <t>{"persons": ["Pierre-Simon Laplace"], "work": "Mécanique Céleste", "concepts": ["Deterministic universe", "Perturbation theory"]}</t>
-  </si>
-  <si>
-    <t>statistical_mechanics</t>
-  </si>
-  <si>
-    <t>1801, 1818</t>
-  </si>
-  <si>
-    <t>England, France</t>
-  </si>
-  <si>
-    <t>{"persons": ["Thomas Young", "Augustin-Jean Fresnel"], "concepts": ["Wave interference", "Diffraction", "Polarization"]}</t>
-  </si>
-  <si>
     <t>electromagnetic_waves</t>
   </si>
   <si>
-    <t>thermodynamics</t>
-  </si>
-  <si>
-    <t>1824, 1850</t>
-  </si>
-  <si>
-    <t>France, Germany, England</t>
-  </si>
-  <si>
-    <t>{"persons": ["Sadi Carnot", "Rudolf Clausius", "William Thomson (Lord Kelvin)"], "concepts": ["Second law", "Entropy", "Absolute temperature"]}</t>
-  </si>
-  <si>
-    <t>heat_engines</t>
-  </si>
-  <si>
-    <t>1798</t>
-  </si>
-  <si>
-    <t>{"persons": ["Benjamin Thompson (Count Rumford)"], "event": "Heat as Motion"}</t>
-  </si>
-  <si>
     <t>1887</t>
   </si>
   <si>
     <t>{"persons": ["Heinrich Hertz"], "event": "Experimental confirmation of electromagnetic waves", "experiments": ["Spark gap transmitter", "Receiver detection"]}</t>
   </si>
   <si>
-    <t>1859, 1902</t>
-  </si>
-  <si>
-    <t>Scotland, Austria, United States</t>
-  </si>
-  <si>
-    <t>{"persons": ["James Clerk Maxwell", "Ludwig Boltzmann", "Josiah Willard Gibbs"], "concepts": ["Kinetic theory", "Statistical ensemble", "H-theorem"]}</t>
-  </si>
-  <si>
     <t>michelson_morley</t>
   </si>
   <si>
@@ -268,27 +277,45 @@
     <t>{"persons": ["Albert Michelson", "Edward Morley"], "event": "Michelson-Morley experiment", "significance": "Null result for ether drift"}</t>
   </si>
   <si>
+    <t>relativity</t>
+  </si>
+  <si>
+    <t>lorentz_transformations</t>
+  </si>
+  <si>
+    <t>1892, 1904</t>
+  </si>
+  <si>
+    <t>{"persons": ["Hendrik Lorentz"], "concepts": ["Lorentz transformations", "Local time", "Length contraction"]}</t>
+  </si>
+  <si>
+    <t>atomic_structure</t>
+  </si>
+  <si>
+    <t>1897, 1911</t>
+  </si>
+  <si>
+    <t>{"persons": ["J.J. Thomson", "Ernest Rutherford"], "concepts": ["Electron discovery", "Nuclear atom model"]}</t>
+  </si>
+  <si>
+    <t>quantum mechanics</t>
+  </si>
+  <si>
+    <t>quantum_mechanics</t>
+  </si>
+  <si>
+    <t>1900, 1928</t>
+  </si>
+  <si>
+    <t>Germany, Denmark, Austria, England, Switzerland</t>
+  </si>
+  <si>
+    <t>{"persons": ["Max Planck", "Niels Bohr", "Werner Heisenberg", "Erwin Schrödinger", "Paul Dirac"], "concepts": ["Quantization", "Wave-particle duality", "Matrix mechanics", "Wave mechanics", "Spin"]}</t>
+  </si>
+  <si>
     <t>special_relativity</t>
   </si>
   <si>
-    <t>lorentz_transformations</t>
-  </si>
-  <si>
-    <t>1892, 1904</t>
-  </si>
-  <si>
-    <t>{"persons": ["Hendrik Lorentz"], "concepts": ["Lorentz transformations", "Local time", "Length contraction"]}</t>
-  </si>
-  <si>
-    <t>atomic_structure</t>
-  </si>
-  <si>
-    <t>1897, 1911</t>
-  </si>
-  <si>
-    <t>{"persons": ["J.J. Thomson", "Ernest Rutherford"], "concepts": ["Electron discovery", "Nuclear atom model"]}</t>
-  </si>
-  <si>
     <t>1905</t>
   </si>
   <si>
@@ -298,16 +325,7 @@
     <t>{"persons": ["Albert Einstein"], "work": "On the Electrodynamics of Moving Bodies", "concepts": ["Constancy of light speed", "Relativity of simultaneity", "Mass-energy equivalence", "Relativistic electrodynamics"]}</t>
   </si>
   <si>
-    <t>quantum_mechanics</t>
-  </si>
-  <si>
-    <t>1900, 1928</t>
-  </si>
-  <si>
-    <t>Germany, Denmark, Austria, England, Switzerland</t>
-  </si>
-  <si>
-    <t>{"persons": ["Max Planck", "Niels Bohr", "Werner Heisenberg", "Erwin Schrödinger", "Paul Dirac"], "concepts": ["Quantization", "Wave-particle duality", "Matrix mechanics", "Wave mechanics", "Spin"]}</t>
+    <t>1905, 1915</t>
   </si>
   <si>
     <t>general_relativity</t>
@@ -331,6 +349,24 @@
     <t>{"persons": ["Paul Dirac", "Richard Feynman", "Julian Schwinger", "Sin-Itiro Tomonaga", "Freeman Dyson"], "concepts": ["Quantum electrodynamics (QED)", "Feynman diagrams", "Renormalization", "Lamb shift", "Anomalous magnetic moment"]}</t>
   </si>
   <si>
+    <t>quantum_field_theory</t>
+  </si>
+  <si>
+    <t>{"persons": ["Paul Dirac", "Richard Feynman", "Julian Schwinger", "Sin-Itiro Tomonaga", "Freeman Dyson"], "concepts": ["Quantum electrodynamics", "Feynman diagrams", "Renormalization"]}</t>
+  </si>
+  <si>
+    <t>bigbang_cosmology</t>
+  </si>
+  <si>
+    <t>1927, 1965</t>
+  </si>
+  <si>
+    <t>Belgium, United States</t>
+  </si>
+  <si>
+    <t>{"persons": ["Georges Lemaître", "George Gamow", "Arno Penzias", "Robert Wilson"], "concepts": ["Expanding universe", "Cosmic microwave background", "Big Bang theory"]}</t>
+  </si>
+  <si>
     <t>standard_model</t>
   </si>
   <si>
@@ -343,16 +379,16 @@
     <t>{"persons": ["Sheldon Glashow", "Steven Weinberg", "Abdus Salam"], "concepts": ["Electroweak unification", "Quark model", "Gauge theories", "Quantum flavor dynamics"]}</t>
   </si>
   <si>
-    <t>bigbang_cosmology</t>
-  </si>
-  <si>
-    <t>1927, 1965</t>
-  </si>
-  <si>
-    <t>Belgium, United States</t>
-  </si>
-  <si>
-    <t>{"persons": ["Georges Lemaître", "George Gamow", "Arno Penzias", "Robert Wilson"], "concepts": ["Expanding universe", "Cosmic microwave background", "Big Bang theory"]}</t>
+    <t>string_theory</t>
+  </si>
+  <si>
+    <t>1968, 1984</t>
+  </si>
+  <si>
+    <t>Italy, United States</t>
+  </si>
+  <si>
+    <t>{"persons": ["Gabriele Veneziano", "John Schwarz", "Michael Green", "Edward Witten"], "concepts": ["String duality", "M-theory", "Extra dimensions", "Holographic principle"]}</t>
   </si>
   <si>
     <t>quantum_computing</t>
@@ -367,16 +403,13 @@
     <t>{"persons": ["Richard Feynman", "David Deutsch", "Peter Shor"], "concepts": ["Quantum algorithms", "Quantum entanglement", "Quantum error correction"]}</t>
   </si>
   <si>
-    <t>string_theory</t>
-  </si>
-  <si>
-    <t>1968, 1984</t>
-  </si>
-  <si>
-    <t>Italy, United States</t>
-  </si>
-  <si>
-    <t>{"persons": ["Gabriele Veneziano", "John Schwarz", "Michael Green", "Edward Witten"], "concepts": ["String duality", "M-theory", "Extra dimensions", "Holographic principle"]}</t>
+    <t>higgs_discovery</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>{"persons": ["ATLAS and CMS collaborations"], "event": "Higgs boson discovery at LHC"}</t>
   </si>
   <si>
     <t>gravitational_waves</t>
@@ -388,37 +421,34 @@
     <t>{"persons": ["LIGO Scientific Collaboration"], "event": "First direct detection", "source": "Binary black hole merger"}</t>
   </si>
   <si>
-    <t>higgs_discovery</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>{"persons": ["ATLAS and CMS collaborations"], "event": "Higgs boson discovery at LHC"}</t>
-  </si>
-  <si>
-    <t>quantum_field_theory</t>
-  </si>
-  <si>
-    <t>{"persons": ["Paul Dirac", "Richard Feynman", "Julian Schwinger", "Sin-Itiro Tomonaga", "Freeman Dyson"], "concepts": ["Quantum electrodynamics", "Feynman diagrams", "Renormalization"]}</t>
-  </si>
-  <si>
-    <t>1564, 1788</t>
-  </si>
-  <si>
-    <t>electromagnetism</t>
-  </si>
-  <si>
-    <t>1785, 1865</t>
-  </si>
-  <si>
-    <t>relativity</t>
-  </si>
-  <si>
-    <t>quantum mechanics</t>
-  </si>
-  <si>
-    <t>1905, 1915</t>
+    <t>analytical_mechanics</t>
+  </si>
+  <si>
+    <t>1743, 1788</t>
+  </si>
+  <si>
+    <t>{"persons": ["Leonhard Euler", "Joseph-Louis Lagrange", "Jean le Rond d'Alembert"], "works": ["Mécanique Analytique"], "concepts": ["Generalized coordinates", "Variational principles", "Lagrangian mechanics", "D'Alembert's principle"]}</t>
+  </si>
+  <si>
+    <t>hamiltonian_mechanics</t>
+  </si>
+  <si>
+    <t>1834</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>{"persons": ["William Rowan Hamilton"], "works": ["On a General Method in Dynamics"], "concepts": ["Hamiltonian formalism", "Phase space", "Canonical transformations"]}</t>
+  </si>
+  <si>
+    <t>galilean_mechanics</t>
+  </si>
+  <si>
+    <t>1632</t>
+  </si>
+  <si>
+    <t>{"persons": ["Galileo Galilei"], "works": ["Dialogue Concerning the Two Chief World Systems"], "concepts": ["Principle of inertia", "Relativity of uniform motion", "Kinematics independent of dynamics"]}</t>
   </si>
 </sst>
 </file>
@@ -781,20 +811,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" customWidth="1"/>
-    <col min="6" max="6" width="54" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -831,550 +856,550 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
         <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
         <v>74</v>
       </c>
-      <c r="C24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" t="s">
-        <v>81</v>
-      </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
         <v>91</v>
       </c>
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
         <v>96</v>
       </c>
-      <c r="B30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>98</v>
-      </c>
       <c r="E30" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
         <v>99</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>100</v>
       </c>
-      <c r="C31" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" t="s">
-        <v>102</v>
-      </c>
       <c r="E31" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
         <v>100</v>
-      </c>
-      <c r="C32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>111</v>
       </c>
@@ -1387,22 +1412,25 @@
       <c r="D36" t="s">
         <v>114</v>
       </c>
+      <c r="E36" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E37" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1413,18 +1441,66 @@
         <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>130</v>
       </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F38">
-    <sortCondition ref="B1:B38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F41">
+    <sortCondition ref="B1:B41"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/history/physics.xlsx
+++ b/history/physics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algo\Notes\math_physics\history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E658408-D20B-47D6-922E-113785FB8174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26920A9C-2D8E-4371-8A1D-5277A9C9CACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="164">
   <si>
     <t>key</t>
   </si>
@@ -55,7 +55,7 @@
     <t>classical_mechanics</t>
   </si>
   <si>
-    <t>1564, 1788</t>
+    <t>1543, 1788</t>
   </si>
   <si>
     <t>France, Switzerland</t>
@@ -88,6 +88,18 @@
     <t>{"persons": ["Johannes Kepler"], "works": ["Astronomia Nova", "Harmonices Mundi"], "event": "Kepler's Laws of Planetary Motion"}</t>
   </si>
   <si>
+    <t>galilean_mechanics</t>
+  </si>
+  <si>
+    <t>1632</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>{"persons": ["Galileo Galilei"], "works": ["Dialogue Concerning the Two Chief World Systems"], "concepts": ["Principle of inertia", "Relativity of uniform motion", "Kinematics independent of dynamics"]}</t>
+  </si>
+  <si>
     <t>huygens_mechanics</t>
   </si>
   <si>
@@ -112,6 +124,15 @@
     <t>{"persons": ["Isaac Newton"], "work": "Philosophiæ Naturalis Principia Mathematica", "concepts": ["Three laws of motion", "Universal gravitation", "Calculus (concurrent with Leibniz)"]}</t>
   </si>
   <si>
+    <t>analytical_mechanics</t>
+  </si>
+  <si>
+    <t>1743, 1866</t>
+  </si>
+  <si>
+    <t>{"persons": ["Leonhard Euler", "Joseph-Louis Lagrange", "Jean le Rond d'Alembert"], "works": ["Mécanique Analytique"], "concepts": ["Generalized coordinates", "Variational principles", "Lagrangian mechanics", "D'Alembert's principle"]}</t>
+  </si>
+  <si>
     <t>coulomb_law</t>
   </si>
   <si>
@@ -157,9 +178,6 @@
     <t>1800</t>
   </si>
   <si>
-    <t>Italy</t>
-  </si>
-  <si>
     <t>{"persons": ["Alessandro Volta"], "event": "First electric battery", "significance": "Continuous electric current"}</t>
   </si>
   <si>
@@ -226,6 +244,18 @@
     <t>{"persons": ["Michael Faraday"], "event": "Electromagnetic induction", "concepts": ["Magnetic field lines", "Field theory concept"]}</t>
   </si>
   <si>
+    <t>hamiltonian_mechanics</t>
+  </si>
+  <si>
+    <t>1834</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>{"persons": ["William Rowan Hamilton"], "works": ["On a General Method in Dynamics"], "concepts": ["Hamiltonian formalism", "Phase space", "Canonical transformations"]}</t>
+  </si>
+  <si>
     <t>gauss_laws</t>
   </si>
   <si>
@@ -298,15 +328,9 @@
     <t>{"persons": ["J.J. Thomson", "Ernest Rutherford"], "concepts": ["Electron discovery", "Nuclear atom model"]}</t>
   </si>
   <si>
-    <t>quantum mechanics</t>
-  </si>
-  <si>
     <t>quantum_mechanics</t>
   </si>
   <si>
-    <t>1900, 1928</t>
-  </si>
-  <si>
     <t>Germany, Denmark, Austria, England, Switzerland</t>
   </si>
   <si>
@@ -421,34 +445,73 @@
     <t>{"persons": ["LIGO Scientific Collaboration"], "event": "First direct detection", "source": "Binary black hole merger"}</t>
   </si>
   <si>
-    <t>analytical_mechanics</t>
-  </si>
-  <si>
-    <t>1743, 1788</t>
-  </si>
-  <si>
-    <t>{"persons": ["Leonhard Euler", "Joseph-Louis Lagrange", "Jean le Rond d'Alembert"], "works": ["Mécanique Analytique"], "concepts": ["Generalized coordinates", "Variational principles", "Lagrangian mechanics", "D'Alembert's principle"]}</t>
-  </si>
-  <si>
-    <t>hamiltonian_mechanics</t>
-  </si>
-  <si>
-    <t>1834</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>{"persons": ["William Rowan Hamilton"], "works": ["On a General Method in Dynamics"], "concepts": ["Hamiltonian formalism", "Phase space", "Canonical transformations"]}</t>
-  </si>
-  <si>
-    <t>galilean_mechanics</t>
-  </si>
-  <si>
-    <t>1632</t>
-  </si>
-  <si>
-    <t>{"persons": ["Galileo Galilei"], "works": ["Dialogue Concerning the Two Chief World Systems"], "concepts": ["Principle of inertia", "Relativity of uniform motion", "Kinematics independent of dynamics"]}</t>
+    <t>d'alembert_principle</t>
+  </si>
+  <si>
+    <t>1743</t>
+  </si>
+  <si>
+    <t>{"persons": ["Jean le Rond d'Alembert"], "work": "Traité de Dynamique", "concepts": ["D'Alembert's principle", "Virtual work", "Reduction of dynamical problems to static ones"]}</t>
+  </si>
+  <si>
+    <t>lagrangian_mechanics</t>
+  </si>
+  <si>
+    <t>1788</t>
+  </si>
+  <si>
+    <t>{"persons": ["Joseph-Louis Lagrange"], "work": "Mécanique Analytique", "concepts": ["Lagrangian function", "Euler-Lagrange equations", "Generalized coordinates", "Principle of least action"]}</t>
+  </si>
+  <si>
+    <t>canonical_transformations</t>
+  </si>
+  <si>
+    <t>1835, 1840</t>
+  </si>
+  <si>
+    <t>{"persons": ["William Rowan Hamilton"], "concepts": ["Canonical transformations", "Generating functions", "Hamilton equations", "Phase space formalism"]}</t>
+  </si>
+  <si>
+    <t>liouville_theorem</t>
+  </si>
+  <si>
+    <t>1838, 1853</t>
+  </si>
+  <si>
+    <t>{"persons": ["Joseph Liouville"], "concepts": ["Liouville's theorem", "Phase space volume conservation", "Invariant integral"]}</t>
+  </si>
+  <si>
+    <t>hamilton_jacobi_theory</t>
+  </si>
+  <si>
+    <t>1837, 1866</t>
+  </si>
+  <si>
+    <t>{"persons": ["Carl Gustav Jacobi"], "concepts": ["Hamilton-Jacobi equation", "Canonical transformation to cyclic coordinates", "Separation of variables in mechanics"], "work": "Vorlesungen über Dynamik"}</t>
+  </si>
+  <si>
+    <t>action_angle_variables</t>
+  </si>
+  <si>
+    <t>1866, 1916</t>
+  </si>
+  <si>
+    <t>Germany, England</t>
+  </si>
+  <si>
+    <t>{"persons": ["Carl Gustav Jacobi", "Albert Einstein"], "concepts": ["Action-angle variables", "Adiabatic invariants", "Quantization conditions"]}</t>
+  </si>
+  <si>
+    <t>poisson_bracket</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>{"persons": ["Siméon Denis Poisson"], "concepts": ["Poisson bracket", "Canonical equations", "Integrability conditions"], "work": "Sur les invariants differentiels des equations des corps solides"}</t>
+  </si>
+  <si>
+    <t>1900, 1994</t>
   </si>
 </sst>
 </file>
@@ -811,15 +874,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -909,16 +972,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -926,16 +989,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -943,16 +1006,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -960,78 +1023,78 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1042,13 +1105,13 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1059,58 +1122,58 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
         <v>49</v>
       </c>
-      <c r="D15" t="s">
-        <v>50</v>
+      <c r="E15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>52</v>
       </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="E18" t="s">
         <v>34</v>
@@ -1118,84 +1181,84 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
         <v>59</v>
       </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>63</v>
-      </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>68</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
       </c>
       <c r="D23" t="s">
         <v>70</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1206,27 +1269,27 @@
         <v>72</v>
       </c>
       <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
         <v>73</v>
       </c>
-      <c r="D24" t="s">
-        <v>74</v>
-      </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
         <v>75</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>77</v>
-      </c>
-      <c r="D25" t="s">
-        <v>78</v>
       </c>
       <c r="E25" t="s">
         <v>34</v>
@@ -1234,16 +1297,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="E26" t="s">
         <v>34</v>
@@ -1251,256 +1314,369 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
         <v>80</v>
       </c>
-      <c r="C27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" t="s">
-        <v>84</v>
-      </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>159</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" t="s">
         <v>130</v>
       </c>
-      <c r="B41" t="s">
+      <c r="E45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>131</v>
       </c>
-      <c r="C41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="B46" t="s">
         <v>132</v>
       </c>
-      <c r="E41" t="s">
-        <v>85</v>
+      <c r="C46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F41">
-    <sortCondition ref="B1:B41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F48">
+    <sortCondition ref="B37:B48"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/history/physics.xlsx
+++ b/history/physics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algo\Notes\math_physics\history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26920A9C-2D8E-4371-8A1D-5277A9C9CACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E3166C-FC74-49D0-BBCF-137A5368F93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="191">
   <si>
     <t>key</t>
   </si>
@@ -124,6 +124,18 @@
     <t>{"persons": ["Isaac Newton"], "work": "Philosophiæ Naturalis Principia Mathematica", "concepts": ["Three laws of motion", "Universal gravitation", "Calculus (concurrent with Leibniz)"]}</t>
   </si>
   <si>
+    <t>d'alembert_principle</t>
+  </si>
+  <si>
+    <t>1743</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>{"persons": ["Jean le Rond d'Alembert"], "work": "Traité de Dynamique", "concepts": ["D'Alembert's principle", "Virtual work", "Reduction of dynamical problems to static ones"]}</t>
+  </si>
+  <si>
     <t>analytical_mechanics</t>
   </si>
   <si>
@@ -139,9 +151,6 @@
     <t>1785</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>{"persons": ["Charles-Augustin de Coulomb"], "concepts": ["Inverse-square law for electric force", "Torsion balance"]}</t>
   </si>
   <si>
@@ -151,6 +160,15 @@
     <t>1785, 1865</t>
   </si>
   <si>
+    <t>lagrangian_mechanics</t>
+  </si>
+  <si>
+    <t>1788</t>
+  </si>
+  <si>
+    <t>{"persons": ["Joseph-Louis Lagrange"], "work": "Mécanique Analytique", "concepts": ["Lagrangian function", "Euler-Lagrange equations", "Generalized coordinates", "Principle of least action"]}</t>
+  </si>
+  <si>
     <t>heat_engines</t>
   </si>
   <si>
@@ -193,6 +211,15 @@
     <t>{"persons": ["Thomas Young", "Augustin-Jean Fresnel"], "concepts": ["Wave interference", "Diffraction", "Polarization"]}</t>
   </si>
   <si>
+    <t>poisson_bracket</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>{"persons": ["Siméon Denis Poisson"], "concepts": ["Poisson bracket", "Canonical equations", "Integrability conditions"], "work": "Sur les invariants differentiels des equations des corps solides"}</t>
+  </si>
+  <si>
     <t>oersted_discovery</t>
   </si>
   <si>
@@ -256,6 +283,15 @@
     <t>{"persons": ["William Rowan Hamilton"], "works": ["On a General Method in Dynamics"], "concepts": ["Hamiltonian formalism", "Phase space", "Canonical transformations"]}</t>
   </si>
   <si>
+    <t>canonical_transformations</t>
+  </si>
+  <si>
+    <t>1835, 1840</t>
+  </si>
+  <si>
+    <t>{"persons": ["William Rowan Hamilton"], "concepts": ["Canonical transformations", "Generating functions", "Hamilton equations", "Phase space formalism"]}</t>
+  </si>
+  <si>
     <t>gauss_laws</t>
   </si>
   <si>
@@ -265,6 +301,24 @@
     <t>{"persons": ["Carl Friedrich Gauss"], "concepts": ["Gauss's law for electricity", "Gauss's law for magnetism"]}</t>
   </si>
   <si>
+    <t>hamilton_jacobi_theory</t>
+  </si>
+  <si>
+    <t>1837, 1866</t>
+  </si>
+  <si>
+    <t>{"persons": ["Carl Gustav Jacobi"], "concepts": ["Hamilton-Jacobi equation", "Canonical transformation to cyclic coordinates", "Separation of variables in mechanics"], "work": "Vorlesungen über Dynamik"}</t>
+  </si>
+  <si>
+    <t>liouville_theorem</t>
+  </si>
+  <si>
+    <t>1838, 1853</t>
+  </si>
+  <si>
+    <t>{"persons": ["Joseph Liouville"], "concepts": ["Liouville's theorem", "Phase space volume conservation", "Invariant integral"]}</t>
+  </si>
+  <si>
     <t>statistical_mechanics</t>
   </si>
   <si>
@@ -289,6 +343,18 @@
     <t>{"persons": ["James Clerk Maxwell"], "works": ["On Physical Lines of Force", "A Dynamical Theory of the Electromagnetic Field"], "achievement": "Maxwell's equations unified electricity, magnetism, and light", "concepts": ["Displacement current", "Electromagnetic waves prediction", "Light as electromagnetic wave"]}</t>
   </si>
   <si>
+    <t>action_angle_variables</t>
+  </si>
+  <si>
+    <t>1866, 1916</t>
+  </si>
+  <si>
+    <t>Germany, England</t>
+  </si>
+  <si>
+    <t>{"persons": ["Carl Gustav Jacobi", "Albert Einstein"], "concepts": ["Action-angle variables", "Adiabatic invariants", "Quantization conditions"]}</t>
+  </si>
+  <si>
     <t>electromagnetic_waves</t>
   </si>
   <si>
@@ -331,6 +397,9 @@
     <t>quantum_mechanics</t>
   </si>
   <si>
+    <t>1900, 1994</t>
+  </si>
+  <si>
     <t>Germany, Denmark, Austria, England, Switzerland</t>
   </si>
   <si>
@@ -349,7 +418,7 @@
     <t>{"persons": ["Albert Einstein"], "work": "On the Electrodynamics of Moving Bodies", "concepts": ["Constancy of light speed", "Relativity of simultaneity", "Mass-energy equivalence", "Relativistic electrodynamics"]}</t>
   </si>
   <si>
-    <t>1905, 1915</t>
+    <t>1905, 1916</t>
   </si>
   <si>
     <t>general_relativity</t>
@@ -436,6 +505,15 @@
     <t>{"persons": ["ATLAS and CMS collaborations"], "event": "Higgs boson discovery at LHC"}</t>
   </si>
   <si>
+    <t>schwarzschild_solution</t>
+  </si>
+  <si>
+    <t>1916</t>
+  </si>
+  <si>
+    <t>{"persons": ["Karl Schwarzschild"], "work": "Exact solution to Einstein field equations", "concepts": ["Schwarzschild metric", "Black hole solution", "Event horizon", "Singularity"]}</t>
+  </si>
+  <si>
     <t>gravitational_waves</t>
   </si>
   <si>
@@ -445,73 +523,76 @@
     <t>{"persons": ["LIGO Scientific Collaboration"], "event": "First direct detection", "source": "Binary black hole merger"}</t>
   </si>
   <si>
-    <t>d'alembert_principle</t>
-  </si>
-  <si>
-    <t>1743</t>
-  </si>
-  <si>
-    <t>{"persons": ["Jean le Rond d'Alembert"], "work": "Traité de Dynamique", "concepts": ["D'Alembert's principle", "Virtual work", "Reduction of dynamical problems to static ones"]}</t>
-  </si>
-  <si>
-    <t>lagrangian_mechanics</t>
-  </si>
-  <si>
-    <t>1788</t>
-  </si>
-  <si>
-    <t>{"persons": ["Joseph-Louis Lagrange"], "work": "Mécanique Analytique", "concepts": ["Lagrangian function", "Euler-Lagrange equations", "Generalized coordinates", "Principle of least action"]}</t>
-  </si>
-  <si>
-    <t>canonical_transformations</t>
-  </si>
-  <si>
-    <t>1835, 1840</t>
-  </si>
-  <si>
-    <t>{"persons": ["William Rowan Hamilton"], "concepts": ["Canonical transformations", "Generating functions", "Hamilton equations", "Phase space formalism"]}</t>
-  </si>
-  <si>
-    <t>liouville_theorem</t>
-  </si>
-  <si>
-    <t>1838, 1853</t>
-  </si>
-  <si>
-    <t>{"persons": ["Joseph Liouville"], "concepts": ["Liouville's theorem", "Phase space volume conservation", "Invariant integral"]}</t>
-  </si>
-  <si>
-    <t>hamilton_jacobi_theory</t>
-  </si>
-  <si>
-    <t>1837, 1866</t>
-  </si>
-  <si>
-    <t>{"persons": ["Carl Gustav Jacobi"], "concepts": ["Hamilton-Jacobi equation", "Canonical transformation to cyclic coordinates", "Separation of variables in mechanics"], "work": "Vorlesungen über Dynamik"}</t>
-  </si>
-  <si>
-    <t>action_angle_variables</t>
-  </si>
-  <si>
-    <t>1866, 1916</t>
-  </si>
-  <si>
-    <t>Germany, England</t>
-  </si>
-  <si>
-    <t>{"persons": ["Carl Gustav Jacobi", "Albert Einstein"], "concepts": ["Action-angle variables", "Adiabatic invariants", "Quantization conditions"]}</t>
-  </si>
-  <si>
-    <t>poisson_bracket</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>{"persons": ["Siméon Denis Poisson"], "concepts": ["Poisson bracket", "Canonical equations", "Integrability conditions"], "work": "Sur les invariants differentiels des equations des corps solides"}</t>
-  </si>
-  <si>
-    <t>1900, 1994</t>
+    <t>snells_law</t>
+  </si>
+  <si>
+    <t>1621</t>
+  </si>
+  <si>
+    <t>{"persons": ["Willebrord Snellius"], "event": "Snell's Law of Refraction", "concepts": ["Refraction of light", "Optics", "n1 sinθ1 = n2 sinθ2"], "significance": "Law describing the relationship between angles of incidence and refraction when light passes through different media"}</t>
+  </si>
+  <si>
+    <t>bose_einstein_statistics</t>
+  </si>
+  <si>
+    <t>1924</t>
+  </si>
+  <si>
+    <t>India, Switzerland</t>
+  </si>
+  <si>
+    <t>{"persons": ["Satyendra Nath Bose", "Albert Einstein"], "event": "Bose-Einstein Statistics", "concepts": ["Bose-Einstein statistics", "Bosons"], "significance": "Statistical description for particles that can share the same quantum state, leading to understanding of bosons"}</t>
+  </si>
+  <si>
+    <t>bose_einstein_condensate</t>
+  </si>
+  <si>
+    <t>fermi_dirac_statistics</t>
+  </si>
+  <si>
+    <t>1926</t>
+  </si>
+  <si>
+    <t>Italy, United Kingdom</t>
+  </si>
+  <si>
+    <t>{"persons": ["Enrico Fermi", "Paul Dirac"], "event": "Fermi-Dirac Statistics", "concepts": ["Fermi-Dirac statistics", "Fermions", "Pauli exclusion principle"], "significance": "Statistical description for particles that cannot share the same quantum state, leading to understanding of fermions"}</t>
+  </si>
+  <si>
+    <t>pi_mesons</t>
+  </si>
+  <si>
+    <t>1947</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>{"persons": ["Cecil Powell", "César Lattes", "Giuseppe Occhialini"], "event": "Discovery of Pi Mesons", "concepts": ["Pi mesons", "Pion", "Strong nuclear force"], "significance": "First true mesons discovered, confirming Yukawa's prediction of force-carrying particles between nucleons"}</t>
+  </si>
+  <si>
+    <t>kaon_discovery</t>
+  </si>
+  <si>
+    <t>{"persons": ["G. D. Rochester", "C. C. Butler"], "event": "Discovery of Kaon Mesons", "concepts": ["Kaon", "K meson", "Strange particles"], "significance": "Discovery of strange particles, leading to understanding of strangeness quantum number"}</t>
+  </si>
+  <si>
+    <t>phi_mesons</t>
+  </si>
+  <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>{"persons": ["Samuel G. B. Brush"], "event": "Discovery of Phi Mesons", "concepts": ["Phi meson", "Vector meson", "Strange quark"], "significance": "Discovery of phi meson, composed of strange and anti-strange quarks"}</t>
+  </si>
+  <si>
+    <t>j_psi_discovery</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>{"persons": ["Samuel C. C. Ting", "Burton Richter"], "event": "Discovery of J/Psi Meson", "concepts": ["J/Psi meson", "Charmonium", "Charm quark"], "significance": "Discovery of J/Psi meson, confirming existence of charm quark, leading to 'November Revolution' in particle physics"}</t>
   </si>
 </sst>
 </file>
@@ -874,15 +955,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="76.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -972,16 +1056,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -989,16 +1073,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1006,16 +1090,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1023,19 +1107,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1046,30 +1130,30 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1079,604 +1163,746 @@
       <c r="B12" t="s">
         <v>42</v>
       </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>98</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" t="s">
+        <v>182</v>
+      </c>
+      <c r="E48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" t="s">
+        <v>187</v>
+      </c>
+      <c r="E50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>188</v>
+      </c>
+      <c r="B53" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" t="s">
         <v>156</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D54" t="s">
         <v>157</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E54" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>158</v>
       </c>
-      <c r="D32" t="s">
+      <c r="B55" t="s">
         <v>159</v>
       </c>
-      <c r="E32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" t="s">
-        <v>112</v>
-      </c>
-      <c r="E40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="C55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" t="s">
         <v>115</v>
       </c>
-      <c r="D41" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="D56" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" t="s">
         <v>117</v>
       </c>
-      <c r="B42" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" t="s">
-        <v>130</v>
-      </c>
-      <c r="E45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>131</v>
-      </c>
-      <c r="B46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" t="s">
-        <v>134</v>
-      </c>
-      <c r="E46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" t="s">
-        <v>137</v>
-      </c>
-      <c r="E47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" t="s">
-        <v>140</v>
-      </c>
-      <c r="E48" t="s">
-        <v>95</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F48">
-    <sortCondition ref="B37:B48"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F56">
+    <sortCondition ref="B1:B56"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/history/physics.xlsx
+++ b/history/physics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algo\Notes\math_physics\history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E658408-D20B-47D6-922E-113785FB8174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6743944F-7BE1-419F-A974-105F5B956719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="263">
   <si>
     <t>key</t>
   </si>
@@ -55,7 +55,7 @@
     <t>classical_mechanics</t>
   </si>
   <si>
-    <t>1564, 1788</t>
+    <t>1543, 1788</t>
   </si>
   <si>
     <t>France, Switzerland</t>
@@ -88,15 +88,36 @@
     <t>{"persons": ["Johannes Kepler"], "works": ["Astronomia Nova", "Harmonices Mundi"], "event": "Kepler's Laws of Planetary Motion"}</t>
   </si>
   <si>
+    <t>snells_law</t>
+  </si>
+  <si>
+    <t>1621</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>{"persons": ["Willebrord Snellius"], "event": "Snell's Law of Refraction", "concepts": ["Refraction of light", "Optics", "n1 sinθ1 = n2 sinθ2"], "significance": "Law describing the relationship between angles of incidence and refraction when light passes through different media"}</t>
+  </si>
+  <si>
+    <t>galilean_mechanics</t>
+  </si>
+  <si>
+    <t>1632</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>{"persons": ["Galileo Galilei"], "works": ["Dialogue Concerning the Two Chief World Systems"], "concepts": ["Principle of inertia", "Relativity of uniform motion", "Kinematics independent of dynamics"]}</t>
+  </si>
+  <si>
     <t>huygens_mechanics</t>
   </si>
   <si>
     <t>1673</t>
   </si>
   <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
     <t>{"persons": ["Christiaan Huygens"], "concepts": ["Centrifugal force", "Wave theory of light", "Pendulum clock"]}</t>
   </si>
   <si>
@@ -112,15 +133,33 @@
     <t>{"persons": ["Isaac Newton"], "work": "Philosophiæ Naturalis Principia Mathematica", "concepts": ["Three laws of motion", "Universal gravitation", "Calculus (concurrent with Leibniz)"]}</t>
   </si>
   <si>
+    <t>d'alembert_principle</t>
+  </si>
+  <si>
+    <t>1743</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>{"persons": ["Jean le Rond d'Alembert"], "paper": "Traité de Dynamique", "work": "In his work *Traité de Dynamique*, he proposed formally transforming dynamic problems into static problems: ∑(Fᵢ - mᵢaᵢ)·δrᵢ = 0. This is a crucial step from vector mechanics to analytical mechanics, introducing the concept of \"virtual displacement\".", "concepts": ["D'Alembert's principle", "Virtual work", "Reduction of dynamical problems to static ones"]}</t>
+  </si>
+  <si>
+    <t>analytical_mechanics</t>
+  </si>
+  <si>
+    <t>1743, 1866</t>
+  </si>
+  <si>
+    <t>{"persons": ["Leonhard Euler", "Joseph-Louis Lagrange", "Jean le Rond d'Alembert"], "works": ["Mécanique Analytique"], "concepts": ["Generalized coordinates", "Variational principles", "Lagrangian mechanics", "D'Alembert's principle"]}</t>
+  </si>
+  <si>
     <t>coulomb_law</t>
   </si>
   <si>
     <t>1785</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>{"persons": ["Charles-Augustin de Coulomb"], "concepts": ["Inverse-square law for electric force", "Torsion balance"]}</t>
   </si>
   <si>
@@ -130,6 +169,15 @@
     <t>1785, 1865</t>
   </si>
   <si>
+    <t>lagrangian_mechanics</t>
+  </si>
+  <si>
+    <t>1788</t>
+  </si>
+  <si>
+    <t>{"persons": ["Joseph-Louis Lagrange"], "paper": "Mécanique Analytique", "work": "Published his epoch-making work, *Mécanique Analytique*. The entire book uses no geometric diagrams, relying entirely on mathematical analysis. 1. Introduced generalized coordinates (qᵢ), freeing it from the constraints of Cartesian coordinates. 2. Defined the Lagrange function L = T - V. 3. Derived the Lagrange equation from d'Alembert's principle: d/dt(∂L/∂qᵢ) - ∂L/∂qᵢ = 0. This marked the formal birth of analytical mechanics, providing a universal method for dealing with complex constrained systems.", "concepts": ["Lagrangian function", "Euler-Lagrange equations", "Generalized coordinates", "Principle of least action"]}</t>
+  </si>
+  <si>
     <t>heat_engines</t>
   </si>
   <si>
@@ -157,9 +205,6 @@
     <t>1800</t>
   </si>
   <si>
-    <t>Italy</t>
-  </si>
-  <si>
     <t>{"persons": ["Alessandro Volta"], "event": "First electric battery", "significance": "Continuous electric current"}</t>
   </si>
   <si>
@@ -175,6 +220,15 @@
     <t>{"persons": ["Thomas Young", "Augustin-Jean Fresnel"], "concepts": ["Wave interference", "Diffraction", "Polarization"]}</t>
   </si>
   <si>
+    <t>poisson_bracket</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>{"persons": ["Siméon Denis Poisson"], "concepts": ["Poisson bracket", "Canonical equations", "Integrability conditions"], "work": "Sur les invariants differentiels des equations des corps solides. Introducing the Poisson bracket operation for the Hamiltonian system: {f, g} = ∑ (∂f/∂qᵢ ∂g/∂pᵢ - ∂f/∂pᵢ ∂g/∂qᵢ). The canonical equations can be written as q̇ = {q, H}, ṗ = {p, H}. This operation profoundly reveals the algebraic structure of mechanical quantities and serves as a crucial bridge between classical mechanics and quantum mechanics (corresponding to commutators in quantum mechanics)."}</t>
+  </si>
+  <si>
     <t>oersted_discovery</t>
   </si>
   <si>
@@ -226,6 +280,27 @@
     <t>{"persons": ["Michael Faraday"], "event": "Electromagnetic induction", "concepts": ["Magnetic field lines", "Field theory concept"]}</t>
   </si>
   <si>
+    <t>hamiltonian_mechanics</t>
+  </si>
+  <si>
+    <t>1834</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>{"persons": ["William Rowan Hamilton"], "works": ["Hamilton's principle (the principle of steady action) is proposed: the true trajectory of motion causes the action S = ∫ L dt to reach an extreme value. This is the highest-level axiomatic statement in mechanics (and even physics). Introducing the conjugate momentum pᵢ = ∂L/∂q̇ᵢ, and through the Legendre transformation, the Hamiltonian function H(q,p,t) = ∑pᵢq̇ᵢ - L is obtained from the Lagrange function. The Hamiltonian canonical equations are derived: q̇ᵢ = ∂H/∂pᵢ, ṗᵢ = -∂H/∂qᵢ. The form is symmetrical and elegant, describing the state of the mechanical system as a point in the phase space (q, p)."], "concepts": ["Hamiltonian formalism", "Phase space", "Canonical transformations"]}</t>
+  </si>
+  <si>
+    <t>canonical_transformations</t>
+  </si>
+  <si>
+    <t>1835, 1840</t>
+  </si>
+  <si>
+    <t>{"persons": ["William Rowan Hamilton"], "concepts": ["Canonical transformations", "Generating functions", "Hamilton equations", "Phase space formalism"]}</t>
+  </si>
+  <si>
     <t>gauss_laws</t>
   </si>
   <si>
@@ -235,10 +310,28 @@
     <t>{"persons": ["Carl Friedrich Gauss"], "concepts": ["Gauss's law for electricity", "Gauss's law for magnetism"]}</t>
   </si>
   <si>
+    <t>hamilton_jacobi_theory</t>
+  </si>
+  <si>
+    <t>1837, 1866</t>
+  </si>
+  <si>
+    <t>{"persons": ["Carl Gustav Jacobi"], "concepts": ["Hamilton-Jacobi equation", "Canonical transformation to cyclic coordinates", "Separation of variables in mechanics"], "work": "Vorlesungen über Dynamik. Building upon Hamilton's work, the Hamilton-Jacobi equation was proposed: H(q, ∂S/∂q, t) + ∂S/∂t = 0. Solving this partial differential equation yields the principal function S, transforming the solution of mechanical problems into finding a specific canonical transformation that makes the new Hamiltonian zero. This represents the pinnacle of analytical mechanics and serves as a mathematical link between classical mechanics and wave mechanics (the Schrödinger equation can be viewed as a quantization of the H-J equation)."}</t>
+  </si>
+  <si>
+    <t>liouville_theorem</t>
+  </si>
+  <si>
+    <t>1838, 1853</t>
+  </si>
+  <si>
+    <t>{"persons": ["Joseph Liouville"], "concepts": ["Liouville's theorem", "Phase space volume conservation", "Invariant integral"], "work": "Within the Hamiltonian framework, it is proven that the density of representative points in phase space is conserved during motion, i.e., dρ/dt = 0. This lays a solid mathematical foundation for statistical mechanics (Gibbs ensemble theory) and is a fundamental theorem connecting micromechanics and macroscopic statistics."}</t>
+  </si>
+  <si>
     <t>statistical_mechanics</t>
   </si>
   <si>
-    <t>1859, 1902</t>
+    <t>1859, 1905</t>
   </si>
   <si>
     <t>Scotland, Austria, United States</t>
@@ -259,6 +352,18 @@
     <t>{"persons": ["James Clerk Maxwell"], "works": ["On Physical Lines of Force", "A Dynamical Theory of the Electromagnetic Field"], "achievement": "Maxwell's equations unified electricity, magnetism, and light", "concepts": ["Displacement current", "Electromagnetic waves prediction", "Light as electromagnetic wave"]}</t>
   </si>
   <si>
+    <t>action_angle_variables</t>
+  </si>
+  <si>
+    <t>1866, 1916</t>
+  </si>
+  <si>
+    <t>Germany, England</t>
+  </si>
+  <si>
+    <t>{"persons": ["Carl Gustav Jacobi", "Albert Einstein"], "concepts": ["Action-angle variables", "Adiabatic invariants", "Quantization conditions"]}</t>
+  </si>
+  <si>
     <t>electromagnetic_waves</t>
   </si>
   <si>
@@ -298,13 +403,10 @@
     <t>{"persons": ["J.J. Thomson", "Ernest Rutherford"], "concepts": ["Electron discovery", "Nuclear atom model"]}</t>
   </si>
   <si>
-    <t>quantum mechanics</t>
-  </si>
-  <si>
     <t>quantum_mechanics</t>
   </si>
   <si>
-    <t>1900, 1928</t>
+    <t>1900, 1994</t>
   </si>
   <si>
     <t>Germany, Denmark, Austria, England, Switzerland</t>
@@ -325,7 +427,7 @@
     <t>{"persons": ["Albert Einstein"], "work": "On the Electrodynamics of Moving Bodies", "concepts": ["Constancy of light speed", "Relativity of simultaneity", "Mass-energy equivalence", "Relativistic electrodynamics"]}</t>
   </si>
   <si>
-    <t>1905, 1915</t>
+    <t>1905, 1916</t>
   </si>
   <si>
     <t>general_relativity</t>
@@ -337,6 +439,42 @@
     <t>{"persons": ["Albert Einstein"], "concepts": ["Curved spacetime", "Einstein field equations", "Gravitational waves"]}</t>
   </si>
   <si>
+    <t>schwarzschild_solution</t>
+  </si>
+  <si>
+    <t>1916</t>
+  </si>
+  <si>
+    <t>{"persons": ["Karl Schwarzschild"], "work": "Exact solution to Einstein field equations", "concepts": ["Schwarzschild metric", "Black hole solution", "Event horizon", "Singularity"]}</t>
+  </si>
+  <si>
+    <t>bose_einstein_statistics</t>
+  </si>
+  <si>
+    <t>1924</t>
+  </si>
+  <si>
+    <t>India, Switzerland</t>
+  </si>
+  <si>
+    <t>{"persons": ["Satyendra Nath Bose", "Albert Einstein"], "event": "Bose-Einstein Statistics", "concepts": ["Bose-Einstein statistics", "Bosons"], "significance": "Statistical description for particles that can share the same quantum state, leading to understanding of bosons"}</t>
+  </si>
+  <si>
+    <t>bose_einstein_condensate</t>
+  </si>
+  <si>
+    <t>fermi_dirac_statistics</t>
+  </si>
+  <si>
+    <t>1926</t>
+  </si>
+  <si>
+    <t>Italy, United Kingdom</t>
+  </si>
+  <si>
+    <t>{"persons": ["Enrico Fermi", "Paul Dirac"], "event": "Fermi-Dirac Statistics", "concepts": ["Fermi-Dirac statistics", "Fermions", "Pauli exclusion principle"], "significance": "Statistical description for particles that cannot share the same quantum state, leading to understanding of fermions"}</t>
+  </si>
+  <si>
     <t>quantum_electrodynamics</t>
   </si>
   <si>
@@ -367,6 +505,33 @@
     <t>{"persons": ["Georges Lemaître", "George Gamow", "Arno Penzias", "Robert Wilson"], "concepts": ["Expanding universe", "Cosmic microwave background", "Big Bang theory"]}</t>
   </si>
   <si>
+    <t>pi_mesons</t>
+  </si>
+  <si>
+    <t>1947</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>{"persons": ["Cecil Powell", "César Lattes", "Giuseppe Occhialini"], "event": "Discovery of Pi Mesons", "concepts": ["Pi mesons", "Pion", "Strong nuclear force"], "significance": "First true mesons discovered, confirming Yukawa's prediction of force-carrying particles between nucleons"}</t>
+  </si>
+  <si>
+    <t>kaon_discovery</t>
+  </si>
+  <si>
+    <t>{"persons": ["G. D. Rochester", "C. C. Butler"], "event": "Discovery of Kaon Mesons", "concepts": ["Kaon", "K meson", "Strange particles"], "significance": "Discovery of strange particles, leading to understanding of strangeness quantum number"}</t>
+  </si>
+  <si>
+    <t>phi_mesons</t>
+  </si>
+  <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>{"persons": ["Samuel G. B. Brush"], "event": "Discovery of Phi Mesons", "concepts": ["Phi meson", "Vector meson", "Strange quark"], "significance": "Discovery of phi meson, composed of strange and anti-strange quarks"}</t>
+  </si>
+  <si>
     <t>standard_model</t>
   </si>
   <si>
@@ -391,6 +556,15 @@
     <t>{"persons": ["Gabriele Veneziano", "John Schwarz", "Michael Green", "Edward Witten"], "concepts": ["String duality", "M-theory", "Extra dimensions", "Holographic principle"]}</t>
   </si>
   <si>
+    <t>j_psi_discovery</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>{"persons": ["Samuel C. C. Ting", "Burton Richter"], "event": "Discovery of J/Psi Meson", "concepts": ["J/Psi meson", "Charmonium", "Charm quark"], "significance": "Discovery of J/Psi meson, confirming existence of charm quark, leading to 'November Revolution' in particle physics"}</t>
+  </si>
+  <si>
     <t>quantum_computing</t>
   </si>
   <si>
@@ -421,34 +595,220 @@
     <t>{"persons": ["LIGO Scientific Collaboration"], "event": "First direct detection", "source": "Binary black hole merger"}</t>
   </si>
   <si>
-    <t>analytical_mechanics</t>
-  </si>
-  <si>
-    <t>1743, 1788</t>
-  </si>
-  <si>
-    <t>{"persons": ["Leonhard Euler", "Joseph-Louis Lagrange", "Jean le Rond d'Alembert"], "works": ["Mécanique Analytique"], "concepts": ["Generalized coordinates", "Variational principles", "Lagrangian mechanics", "D'Alembert's principle"]}</t>
-  </si>
-  <si>
-    <t>hamiltonian_mechanics</t>
-  </si>
-  <si>
-    <t>1834</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>{"persons": ["William Rowan Hamilton"], "works": ["On a General Method in Dynamics"], "concepts": ["Hamiltonian formalism", "Phase space", "Canonical transformations"]}</t>
-  </si>
-  <si>
-    <t>galilean_mechanics</t>
-  </si>
-  <si>
-    <t>1632</t>
-  </si>
-  <si>
-    <t>{"persons": ["Galileo Galilei"], "works": ["Dialogue Concerning the Two Chief World Systems"], "concepts": ["Principle of inertia", "Relativity of uniform motion", "Kinematics independent of dynamics"]}</t>
+    <t>quantum_hypothesis</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>{"persons": ["Max Planck"], "event": "Quantum Hypothesis", "concepts": ["Energy quantization", "Discrete energy packets", "Blackbody radiation"], "significance": "Energy can only be emitted or absorbed in discrete packets called quanta, marking the birth of quantum physics"}</t>
+  </si>
+  <si>
+    <t>light_quantum_hypothesis</t>
+  </si>
+  <si>
+    <t>{"persons": ["Albert Einstein"], "event": "Light Quantum Hypothesis", "concepts": ["Photons", "Photoelectric effect", "Energy quantization of light"], "significance": "Proposed light consists of discrete energy packets (photons), successfully explaining the photoelectric effect and reinforcing the concept of energy quantization"}</t>
+  </si>
+  <si>
+    <t>bohr_atomic_model</t>
+  </si>
+  <si>
+    <t>1913</t>
+  </si>
+  <si>
+    <t>{"persons": ["Niels Bohr"], "event": "Bohr Atomic Model", "concepts": ["Quantized electron orbits", "Electron transitions", "Atomic spectra"], "significance": "Introduced quantum conditions to atomic structure, proposing electrons orbit in specific paths and emit/absorb light at specific frequencies during transitions, explaining atomic spectra"}</t>
+  </si>
+  <si>
+    <t>matter_wave_hypothesis</t>
+  </si>
+  <si>
+    <t>{"persons": ["Louis de Broglie"], "event": "Matter Wave Hypothesis", "concepts": ["Wave-particle duality", "de Broglie wavelength λ=h/p", "Matter waves"], "significance": "Proposed all matter (like electrons) exhibits wave-particle duality, laying the foundation for wave mechanics"}</t>
+  </si>
+  <si>
+    <t>matrix_mechanics</t>
+  </si>
+  <si>
+    <t>1925</t>
+  </si>
+  <si>
+    <t>{"persons": ["Werner Heisenberg", "Max Born", "Pascual Jordan"], "event": "Matrix Mechanics", "concepts": ["Matrix mathematics", "Quantum mechanical formalism", "Non-commuting quantities"], "significance": "Created the first complete quantum mechanics formalism using matrix mathematics to describe physical quantities"}</t>
+  </si>
+  <si>
+    <t>wave_mechanics</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>{"persons": ["Erwin Schrödinger"], "event": "Wave Mechanics", "concepts": ["Schrödinger equation", "Wave function", "Mathematical equivalence to matrix mechanics"], "significance": "Provided a more intuitive framework by proposing the Schrödinger equation and proving its mathematical equivalence to matrix mechanics"}</t>
+  </si>
+  <si>
+    <t>uncertainty_principle</t>
+  </si>
+  <si>
+    <t>1927</t>
+  </si>
+  <si>
+    <t>{"persons": ["Werner Heisenberg"], "event": "Uncertainty Principle", "concepts": ["Δx·Δp ≥ ħ/2", "Conjugate variables", "Fundamental measurement limits"], "significance": "Established that conjugate variables like position and momentum cannot be simultaneously measured precisely, a core feature of quantum mechanics"}</t>
+  </si>
+  <si>
+    <t>complementarity_principle</t>
+  </si>
+  <si>
+    <t>{"persons": ["Niels Bohr"], "event": "Complementarity Principle", "concepts": ["Wave-particle duality", "Complementary concepts", "Copenhagen interpretation"], "significance": "Stated that classical concepts like wave and particle nature are mutually exclusive yet complementary, becoming a philosophical foundation of the Copenhagen interpretation"}</t>
+  </si>
+  <si>
+    <t>solvay_conference_1927</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>{"persons": ["Multiple physicists", "Albert Einstein", "Niels Bohr"], "event": "Fifth Solvay Conference on Electrons and Photons", "concepts": ["Quantum mechanics debates", "Einstein-Bohr debates", "Quantum completeness"], "significance": "Einstein and Bohr began their first public debate about quantum mechanics completeness, profoundly influencing the field"}</t>
+  </si>
+  <si>
+    <t>dirac_equation</t>
+  </si>
+  <si>
+    <t>1928</t>
+  </si>
+  <si>
+    <t>{"persons": ["Paul Dirac"], "event": "Dirac Equation", "concepts": ["Relativistic quantum mechanics", "Electron description", "Prediction of antimatter"], "significance": "Combined quantum mechanics with special relativity to describe electrons and predicted the existence of antimatter (positrons)"}</t>
+  </si>
+  <si>
+    <t>erp_paradox</t>
+  </si>
+  <si>
+    <t>1935</t>
+  </si>
+  <si>
+    <t>{"persons": ["Albert Einstein", "Boris Podolsky", "Nathan Rosen"], "event": "EPR Paradox", "concepts": ["Quantum entanglement", "Non-classical correlations", "Quantum mechanics completeness"], "significance": "Famous thought experiment arguing for quantum mechanics incompleteness, with quantum entanglement as the core non-classical correlation"}</t>
+  </si>
+  <si>
+    <t>bell_inequality</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>Northern Ireland</t>
+  </si>
+  <si>
+    <t>{"persons": ["John Bell"], "event": "Bell's Inequality", "concepts": ["Local hidden variables", "Experimental test for quantum mechanics", "Mathematical inequality"], "significance": "Proposed a mathematically testable inequality that, if violated, would confirm quantum mechanics over local hidden variable theories"}</t>
+  </si>
+  <si>
+    <t>noether_theorem</t>
+  </si>
+  <si>
+    <t>1918</t>
+  </si>
+  <si>
+    <t>{"persons": ["Emmy Noether"], "event": "Noether's Theorem", "concepts": ["Continuous symmetry", "Conservation laws", "Time translation symmetry → Energy conservation", "Space translation symmetry → Momentum conservation", "Space rotation symmetry → Angular momentum conservation", "Variational principles"], "significance": "Proved the one-to-one correspondence between continuous symmetries and conservation laws, at the heart of analytical mechanics (variational principles), unifying physics' two pillars - symmetry and conservation laws - with impact throughout modern physics"}</t>
+  </si>
+  <si>
+    <t>carnot_theorem</t>
+  </si>
+  <si>
+    <t>1824</t>
+  </si>
+  <si>
+    <t>{"persons": ["Sadi Carnot"], "event": "Carnot's Theorem and Ideal Heat Engine", "concepts": ["Carnot cycle", "Carnot theorem", "Maximum efficiency of heat engines", "Reversible heat engines"], "significance": "Published 'Reflections on the Motive Power of Fire', establishing that all heat engines operating between the same hot and cold reservoirs have maximum efficiency when reversible, revealing the fundamental limit of heat-to-work conversion, a precursor to the second law of thermodynamics"}</t>
+  </si>
+  <si>
+    <t>first_law_thermodynamics</t>
+  </si>
+  <si>
+    <t>1840</t>
+  </si>
+  <si>
+    <t>{"persons": ["Julius Robert Mayer", "James Prescott Joule", "Hermann von Helmholtz"], "event": "First Law of Thermodynamics", "concepts": ["Heat as energy", "Energy conservation", "Energy conversion", "ΔU = Q - W"], "significance": "Through different approaches (physiological, mechanical, electromagnetic), proved that heat is a form of energy and established the universal law of conservation and transformation of energy, providing the first cornerstone of thermodynamics"}</t>
+  </si>
+  <si>
+    <t>second_law_thermodynamics</t>
+  </si>
+  <si>
+    <t>1850, 1851</t>
+  </si>
+  <si>
+    <t>Germany, Scotland</t>
+  </si>
+  <si>
+    <t>{"persons": ["Rudolf Clausius", "William Thomson (Lord Kelvin)"], "event": "Second Law of Thermodynamics", "concepts": ["Clausius statement", "Kelvin statement", "Directionality of natural processes", "Irreversibility"], "significance": "Clausius statement: Heat cannot spontaneously flow from cold to hot. Kelvin statement: It is impossible to convert heat completely into work without other effects. Together they define the directionality and irreversibility of natural processes"}</t>
+  </si>
+  <si>
+    <t>entropy_concept</t>
+  </si>
+  <si>
+    <t>1865</t>
+  </si>
+  <si>
+    <t>{"persons": ["Rudolf Clausius"], "event": "Birth of Entropy Concept", "concepts": ["Entropy (S)", "Mathematical formulation of second law", "Entropy increase principle", "Quantification of irreversibility"], "significance": "Introduced the state function 'entropy' and gave the mathematical formulation of the second law: for an isolated system, dS ≥ 0, quantifying irreversibility and becoming a core concept in understanding the arrow of time and information theory"}</t>
+  </si>
+  <si>
+    <t>boltzmann_equation</t>
+  </si>
+  <si>
+    <t>1870</t>
+  </si>
+  <si>
+    <t>{"persons": ["Ludwig Boltzmann"], "event": "Molecular Kinetic Theory and H-Theorem", "concepts": ["Boltzmann equation", "H-theorem", "Molecular collisions", "Statistical interpretation of entropy"], "significance": "From statistical assumptions about molecular collisions, derived the Boltzmann equation and H-theorem, attempting to prove that entropy increase corresponds to increased molecular disorder (probability), providing a microscopic statistical interpretation of entropy"}</t>
+  </si>
+  <si>
+    <t>maxwell_demon</t>
+  </si>
+  <si>
+    <t>{"persons": ["James Clerk Maxwell"], "event": "Maxwell's Demon Thought Experiment", "concepts": ["Hypothetical demon", "Challenging second law", "Information and entropy", "Information-entropy relationship"], "significance": "Proposed a hypothetical 'demon' that could challenge the second law of thermodynamics, sparking a century-long debate about the relationship between information, entropy, and energy, eventually leading to the concept of information entropy"}</t>
+  </si>
+  <si>
+    <t>boltzmann_entropy_formula</t>
+  </si>
+  <si>
+    <t>1877</t>
+  </si>
+  <si>
+    <t>{"persons": ["Ludwig Boltzmann"], "event": "Statistical Interpretation of Entropy: S = k log W", "concepts": ["Entropy S", "Number of microstates W", "Boltzmann constant k_B", "S = k_B ln W"], "significance": "Proposed the famous formula: the entropy S of a system is proportional to the logarithm of the number of microstates W, establishing S = k_B ln W, bridging macroscopic thermodynamics and microscopic statistics, becoming the cornerstone of statistical mechanics"}</t>
+  </si>
+  <si>
+    <t>stefan_boltzmann_law</t>
+  </si>
+  <si>
+    <t>1884</t>
+  </si>
+  <si>
+    <t>{"persons": ["Ludwig Boltzmann"], "event": "Stefan-Boltzmann Law", "concepts": ["Blackbody radiation", "Total radiant intensity", "Temperature to fourth power", "J = σT⁴"], "significance": "Derived from thermodynamic theory that the total radiation of a blackbody is proportional to the fourth power of temperature (J = σT⁴), unifying Josef Stefan's experimental discovery and demonstrating the power of statistical theory"}</t>
+  </si>
+  <si>
+    <t>statistical_ensemble_theory</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>{"persons": ["Josiah Willard Gibbs"], "event": "Statistical Ensemble Theory", "concepts": ["Statistical ensemble", "Microcanonical ensemble", "Canonical ensemble", "Grand canonical ensemble", "Ensemble average"], "significance": "Published 'Elementary Principles in Statistical Mechanics', establishing systematic and elegant statistical ensemble theory, shifting the focus from molecular motion models to ensemble averages of system states, making the theory more universal and mathematically rigorous, becoming the standard framework of modern statistical mechanics"}</t>
+  </si>
+  <si>
+    <t>brownian_motion_theory</t>
+  </si>
+  <si>
+    <t>{"persons": ["Albert Einstein"], "event": "Brownian Motion Theory", "concepts": ["Molecular collision statistics", "Random processes", "Statistical fluctuations", "Atomic existence"], "significance": "Explained Brownian motion using statistical theory of molecular collisions and provided prediction formulas, later verified by Jean Perrin's experiments, providing the most direct evidence for the real existence of atoms and molecules, and opening the study of random processes"}</t>
+  </si>
+  <si>
+    <t>third_law_thermodynamics</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>{"persons": ["Walther Nernst"], "event": "Third Law of Thermodynamics (Nernst's Theorem)", "concepts": ["Absolute zero", "Perfect crystal", "Entropy at absolute zero", "Unattainability principle"], "significance": "Proposed: at absolute zero, the entropy change of a perfect crystal of pure substance is zero, meaning absolute zero cannot be reached in finite steps, solving the problem of entropy calculation baseline at low temperatures"}</t>
+  </si>
+  <si>
+    <t>{"persons": ["Satyendra Nath Bose", "Albert Einstein"], "event": "Bose-Einstein Statistics", "concepts": ["Bose-Einstein statistics", "Identical particles", "Bose-Einstein condensation", "Quantum statistics for bosons"], "significance": "Bose proposed new statistical method for photon gas, Einstein extended to identical particles, predicting Bose-Einstein condensation, revealing quantum statistical behavior of particles that do not obey Pauli exclusion principle (bosons)"}</t>
+  </si>
+  <si>
+    <t>Italy, England</t>
+  </si>
+  <si>
+    <t>{"persons": ["Enrico Fermi", "Paul Dirac"], "event": "Fermi-Dirac Statistics", "concepts": ["Fermi-Dirac statistics", "Pauli exclusion principle", "Quantum statistics for fermions", "Electron behavior in metals"], "significance": "Independently proposed quantum statistical method for particles obeying Pauli exclusion principle (fermions, like electrons), successfully explaining problems like electron specific heat in metals, fundamental to understanding solid state physics and stellar evolution"}</t>
   </si>
 </sst>
 </file>
@@ -811,15 +1171,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -909,16 +1269,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -926,16 +1286,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -943,16 +1303,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -960,547 +1320,1244 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>229</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>231</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>233</v>
+      </c>
+      <c r="E32" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>235</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>236</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>237</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
         <v>105</v>
-      </c>
-      <c r="B34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" t="s">
         <v>109</v>
       </c>
-      <c r="B35" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" t="s">
-        <v>110</v>
-      </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>238</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>239</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>242</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="E38" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>245</v>
+      </c>
+      <c r="E39" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c r="E40" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>249</v>
+      </c>
+      <c r="B41" t="s">
+        <v>250</v>
+      </c>
+      <c r="C41" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" t="s">
         <v>130</v>
       </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>252</v>
+      </c>
+      <c r="B48" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" t="s">
+        <v>254</v>
+      </c>
+      <c r="E48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>131</v>
       </c>
-      <c r="C41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="B49" t="s">
         <v>132</v>
       </c>
-      <c r="E41" t="s">
-        <v>85</v>
+      <c r="C49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>194</v>
+      </c>
+      <c r="B50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" t="s">
+        <v>195</v>
+      </c>
+      <c r="E50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>255</v>
+      </c>
+      <c r="B51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" t="s">
+        <v>256</v>
+      </c>
+      <c r="E51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>257</v>
+      </c>
+      <c r="B53" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>259</v>
+      </c>
+      <c r="E53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>198</v>
+      </c>
+      <c r="E54" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>225</v>
+      </c>
+      <c r="B57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>227</v>
+      </c>
+      <c r="E57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>199</v>
+      </c>
+      <c r="B59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" t="s">
+        <v>200</v>
+      </c>
+      <c r="E59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" t="s">
+        <v>260</v>
+      </c>
+      <c r="E60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" t="s">
+        <v>202</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>203</v>
+      </c>
+      <c r="E61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>204</v>
+      </c>
+      <c r="B63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" t="s">
+        <v>206</v>
+      </c>
+      <c r="E63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" t="s">
+        <v>261</v>
+      </c>
+      <c r="D64" t="s">
+        <v>262</v>
+      </c>
+      <c r="E64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" t="s">
+        <v>208</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>209</v>
+      </c>
+      <c r="E65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>210</v>
+      </c>
+      <c r="B66" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>211</v>
+      </c>
+      <c r="E66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" t="s">
+        <v>214</v>
+      </c>
+      <c r="E67" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" t="s">
+        <v>156</v>
+      </c>
+      <c r="E69" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" t="s">
+        <v>217</v>
+      </c>
+      <c r="E71" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" t="s">
+        <v>220</v>
+      </c>
+      <c r="E72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>161</v>
+      </c>
+      <c r="B73" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" t="s">
+        <v>163</v>
+      </c>
+      <c r="D73" t="s">
+        <v>164</v>
+      </c>
+      <c r="E73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>165</v>
+      </c>
+      <c r="B74" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" t="s">
+        <v>163</v>
+      </c>
+      <c r="D74" t="s">
+        <v>166</v>
+      </c>
+      <c r="E74" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" t="s">
+        <v>118</v>
+      </c>
+      <c r="D75" t="s">
+        <v>169</v>
+      </c>
+      <c r="E75" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76" t="s">
+        <v>173</v>
+      </c>
+      <c r="E76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>221</v>
+      </c>
+      <c r="B77" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" t="s">
+        <v>223</v>
+      </c>
+      <c r="D77" t="s">
+        <v>224</v>
+      </c>
+      <c r="E77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>174</v>
+      </c>
+      <c r="B78" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>178</v>
+      </c>
+      <c r="B79" t="s">
+        <v>179</v>
+      </c>
+      <c r="C79" t="s">
+        <v>118</v>
+      </c>
+      <c r="D79" t="s">
+        <v>180</v>
+      </c>
+      <c r="E79" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" t="s">
+        <v>183</v>
+      </c>
+      <c r="D80" t="s">
+        <v>184</v>
+      </c>
+      <c r="E80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>185</v>
+      </c>
+      <c r="B81" t="s">
+        <v>186</v>
+      </c>
+      <c r="C81" t="s">
+        <v>133</v>
+      </c>
+      <c r="D81" t="s">
+        <v>187</v>
+      </c>
+      <c r="E81" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>188</v>
+      </c>
+      <c r="B82" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82" t="s">
+        <v>190</v>
+      </c>
+      <c r="E82" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F41">
-    <sortCondition ref="B1:B41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F82">
+    <sortCondition ref="B43:B82"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/history/physics.xlsx
+++ b/history/physics.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>classical_mechanics</t>
+          <t>classical mechanics</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>classical_mechanics</t>
+          <t>classical mechanics</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tycho_observations</t>
+          <t>tycho observations</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>classical_mechanics</t>
+          <t>classical mechanics</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -548,7 +548,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>planetary_motion</t>
+          <t>kepler's law</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>classical_mechanics</t>
+          <t>classical mechanics</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -576,7 +576,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>snells_law</t>
+          <t>snells law</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>classical_mechanics</t>
+          <t>classical mechanics</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -604,7 +604,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>galilean_mechanics</t>
+          <t>galilean mechanics</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>classical_mechanics</t>
+          <t>classical mechanics</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -632,7 +632,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>huygens_mechanics</t>
+          <t>huygens mechanics</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>classical_mechanics</t>
+          <t>classical mechanics</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -660,7 +660,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>newtonian_mechanics</t>
+          <t>newtonian mechanics</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>classical_mechanics</t>
+          <t>classical mechanics</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -688,7 +688,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>d'alembert_principle</t>
+          <t>d'alembert principle</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>analytical_mechanics</t>
+          <t>analytical mechanics</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -716,7 +716,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>analytical_mechanics</t>
+          <t>analytical mechanics</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -740,7 +740,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>coulomb_law</t>
+          <t>coulomb law</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>lagrangian_mechanics</t>
+          <t>lagrangian mechanics</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>analytical_mechanics</t>
+          <t>analytical mechanics</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -812,7 +812,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>heat_engines</t>
+          <t>heat engines</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -840,7 +840,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>celestial_mechanics</t>
+          <t>celestial mechanics</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -860,7 +860,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>classical_mechanics</t>
+          <t>classical mechanics</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -868,7 +868,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>voltaic_pile</t>
+          <t>voltaic pile</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -896,7 +896,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>wave_optics</t>
+          <t>wave optics</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>classical_mechanics</t>
+          <t>classical mechanics</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -924,7 +924,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>poisson_bracket</t>
+          <t>poisson bracket</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>analytical_mechanics</t>
+          <t>analytical mechanics</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -952,7 +952,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>oersted_discovery</t>
+          <t>electric current creates magnetic field</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -980,7 +980,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>biot_savart_law</t>
+          <t>biot savart law</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1008,7 +1008,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>electric_motor_generator</t>
+          <t>electric motor generator</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ampere_law</t>
+          <t>ampere law</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>carnot_theorem</t>
+          <t>carnot theorem</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1116,7 +1116,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>faraday_induction</t>
+          <t>faraday induction</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>hamiltonian_mechanics</t>
+          <t>hamiltonian mechanics</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>analytical_mechanics</t>
+          <t>analytical mechanics</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1172,7 +1172,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>canonical_transformations</t>
+          <t>canonical transformations</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>analytical_mechanics</t>
+          <t>analytical mechanics</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1200,12 +1200,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>gauss_laws</t>
+          <t>gauss laws</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1835, 1867</t>
+          <t>1835</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>hamilton_jacobi_theory</t>
+          <t>hamilton jacobi theory</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>analytical_mechanics</t>
+          <t>analytical mechanics</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1256,7 +1256,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>liouville_theorem</t>
+          <t>liouville theorem</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>analytical_mechanics</t>
+          <t>analytical mechanics</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>first_law_thermodynamics</t>
+          <t>first law thermodynamics</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>second_law_thermodynamics</t>
+          <t>second law thermodynamics</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1340,7 +1340,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>statistical_mechanics</t>
+          <t>statistical mechanics</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>maxwell_equations</t>
+          <t>maxwell equations</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1392,7 +1392,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>entropy_concept</t>
+          <t>entropy concept</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>action_angle_variables</t>
+          <t>action angle variables</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>analytical_mechanics</t>
+          <t>analytical mechanics</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -1448,7 +1448,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>boltzmann_equation</t>
+          <t>boltzmann equation</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>statistical_mechanics</t>
+          <t>statistical mechanics</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -1476,7 +1476,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>maxwell_demon</t>
+          <t>maxwell demon</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>statistical_mechanics</t>
+          <t>statistical mechanics</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -1504,7 +1504,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>boltzmann_entropy_formula</t>
+          <t>boltzmann entropy formula</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>statistical_mechanics</t>
+          <t>statistical mechanics</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -1532,7 +1532,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>stefan_boltzmann_law</t>
+          <t>stefan boltzmann law</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>statistical_mechanics</t>
+          <t>statistical mechanics</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -1560,7 +1560,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>electromagnetic_waves</t>
+          <t>electromagnetic waves</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>michelson_morley</t>
+          <t>michelson morley</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1616,7 +1616,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>lorentz_transformations</t>
+          <t>lorentz transformations</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1644,7 +1644,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>atomic_structure</t>
+          <t>atomic structure</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>quantum_hypothesis</t>
+          <t>quantum hypothesis</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -1700,7 +1700,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1724,7 +1724,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>statistical_ensemble_theory</t>
+          <t>statistical ensemble theory</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>statistical_mechanics</t>
+          <t>statistical mechanics</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -1752,7 +1752,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>special_relativity</t>
+          <t>special relativity</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>light_quantum_hypothesis</t>
+          <t>light quantum hypothesis</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -1808,7 +1808,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>brownian_motion_theory</t>
+          <t>brownian motion theory</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>statistical_mechanics</t>
+          <t>statistical mechanics</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -1860,7 +1860,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>third_law_thermodynamics</t>
+          <t>third law thermodynamics</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>bohr_atomic_model</t>
+          <t>bohr atomic model</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -1916,7 +1916,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>general_relativity</t>
+          <t>general relativity</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1944,7 +1944,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>schwarzschild_solution</t>
+          <t>schwarzschild solution</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>noether_theorem</t>
+          <t>noether theorem</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>analytical_mechanics</t>
+          <t>analytical mechanics</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -2000,7 +2000,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>matter_wave_hypothesis</t>
+          <t>matter wave hypothesis</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -2028,7 +2028,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>bose_einstein_statistics</t>
+          <t>bose einstein statistics</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -2056,7 +2056,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>matrix_mechanics</t>
+          <t>matrix mechanics</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -2084,7 +2084,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>wave_mechanics</t>
+          <t>wave mechanics</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -2112,7 +2112,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>fermi_dirac_statistics</t>
+          <t>fermi dirac statistics</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -2140,7 +2140,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>uncertainty_principle</t>
+          <t>uncertainty principle</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>complementarity_principle</t>
+          <t>complementarity principle</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>solvay_conference_1927</t>
+          <t>solvay conference 1927</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -2224,7 +2224,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>quantum_electrodynamics</t>
+          <t>quantum electrodynamics</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -2252,7 +2252,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>quantum_field_theory</t>
+          <t>quantum field theory</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -2280,7 +2280,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>bigbang_cosmology</t>
+          <t>bigbang cosmology</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2304,7 +2304,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>dirac_equation</t>
+          <t>dirac equation</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>erp_paradox</t>
+          <t>erp paradox</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -2360,7 +2360,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>pi_mesons</t>
+          <t>pi mesons</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -2388,7 +2388,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>kaon_discovery</t>
+          <t>kaon discovery</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -2416,7 +2416,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>phi_mesons</t>
+          <t>phi mesons</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>standard_model</t>
+          <t>standard model</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -2472,7 +2472,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>bell_inequality</t>
+          <t>bell inequality</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -2500,7 +2500,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>string_theory</t>
+          <t>string theory</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -2528,7 +2528,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>j_psi_discovery</t>
+          <t>j psi discovery</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -2556,7 +2556,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>quantum_computing</t>
+          <t>quantum computing</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -2584,7 +2584,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>higgs_discovery</t>
+          <t>higgs discovery</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -2612,7 +2612,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>gravitational_waves</t>
+          <t>gravitational waves</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2640,7 +2640,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>zeeman_effect</t>
+          <t>zeeman effect</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -2668,7 +2668,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>stern_gerlach_experiment</t>
+          <t>stern gerlach experiment</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -2696,7 +2696,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>electron_spin_hypothesis</t>
+          <t>electron spin hypothesis</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -2724,7 +2724,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>giant_magnetoresistance</t>
+          <t>giant magnetoresistance</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>quantum_mechanics</t>
+          <t>quantum mechanics</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
